--- a/for Hector/Tom/sf1Right-lookup.xlsx
+++ b/for Hector/Tom/sf1Right-lookup.xlsx
@@ -160,10 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,176 +471,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1997</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1997</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>1998</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>2018</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>6.33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2019</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.747</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
